--- a/para_grading/Dataset/test_set.xlsx
+++ b/para_grading/Dataset/test_set.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="171">
   <si>
     <t>Sharing</t>
   </si>
@@ -435,9 +435,6 @@
     <t>AE shares your information only as described in this Privacy Policy</t>
   </si>
   <si>
-    <t>Except as set forth herein, or if we inform you otherwise at the time of data collection, we will not share your PII or Related Data outside of Dow Jones.</t>
-  </si>
-  <si>
     <t>We will use and disclose your Personal Information only as follows</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>WEBM will disclose personal information and or an IP address when we have your consent to share the information</t>
   </si>
   <si>
-    <t>Bonnier will only share your sensitive personal information with outside companies or individuals in any of the following limited circumstances</t>
-  </si>
-  <si>
     <t>Except as provided below, Skype will not sell, rent, trade or otherwise transfer any personal and or traffic data or communications content outside of Microsoft and its controlled subsidiaries and affiliates without your explicit permission</t>
   </si>
   <si>
@@ -483,12 +477,6 @@
     <t>We reserve the right to share your personal information with third parties if required to do so by law, or if we believe such action is necessary in order to</t>
   </si>
   <si>
-    <t>Restricted Data is not automatically shared with, sold to, or displayed for other Members or Partners</t>
-  </si>
-  <si>
-    <t>At times, we may share your personal information with others for various purposes</t>
-  </si>
-  <si>
     <t>We do not sell Registration Information, nor do we share any Registration Information (including, any Registration Information combined with other Usage or Technical Information) with any third party for marketing purposes</t>
   </si>
   <si>
@@ -525,10 +513,22 @@
     <t>We do not share personally identifiable information with our Affiliates or other third-parties for their marketing or promotional uses except as part of a specific program or feature that you have chosen to participate in</t>
   </si>
   <si>
-    <t>We will not sell, license, transmit or disclose your personal information outside of Blackbaud or its affiliates without notice to you unless as noted in this Statement or on our websites</t>
-  </si>
-  <si>
     <t>Score #</t>
+  </si>
+  <si>
+    <t>by law</t>
+  </si>
+  <si>
+    <t>We may rent, sell, or share personally identifiable information about you with non-Affiliated companies in order to provide services or products that you have requested, when we have your permission, or as described in this policy, including under the circumstances provided below.</t>
+  </si>
+  <si>
+    <t>http://www.antennatv.tv/about/antv-privacy-policy-120810,0,4125379.story</t>
+  </si>
+  <si>
+    <t>Interesting case, different pattern than train. so added</t>
+  </si>
+  <si>
+    <t>outside</t>
   </si>
 </sst>
 </file>
@@ -883,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1018,6 +1018,9 @@
       <c r="B6" t="s">
         <v>104</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="K6" s="2" t="s">
         <v>81</v>
       </c>
@@ -1032,6 +1035,9 @@
       <c r="B7" t="s">
         <v>104</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="K7" s="2" t="s">
         <v>84</v>
       </c>
@@ -1046,6 +1052,9 @@
       <c r="B8" t="s">
         <v>104</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="K8" s="2" t="s">
         <v>85</v>
       </c>
@@ -1060,6 +1069,9 @@
       <c r="B9" t="s">
         <v>104</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="K9" s="2" t="s">
         <v>89</v>
       </c>
@@ -1350,10 +1362,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
@@ -1430,7 +1442,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
         <v>117</v>
@@ -1456,59 +1468,68 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
         <v>109</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L30">
-        <v>238</v>
+        <v>488</v>
       </c>
       <c r="M30">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
         <v>111</v>
       </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
       <c r="I31" t="s">
         <v>109</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="K31" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L31">
-        <v>488</v>
+        <v>150</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
@@ -1519,31 +1540,22 @@
       <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="F32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" t="s">
-        <v>112</v>
-      </c>
       <c r="I32" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="K32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L32">
-        <v>150</v>
+        <v>479</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
         <v>125</v>
@@ -1558,24 +1570,24 @@
         <v>109</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L33">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
         <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
         <v>111</v>
@@ -1584,149 +1596,143 @@
         <v>109</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="L34">
-        <v>384</v>
+        <v>153</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="C35" t="s">
-        <v>107</v>
+      <c r="C35" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>111</v>
       </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
       <c r="I35" t="s">
         <v>109</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="L35">
-        <v>153</v>
+        <v>374</v>
       </c>
       <c r="M35">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="J36" t="s">
+        <v>12</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>374</v>
+        <v>712</v>
       </c>
       <c r="M36">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="1"/>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="L37">
-        <v>712</v>
+        <v>252</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
         <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="L38">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
         <v>115</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L39">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="M39">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
         <v>115</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L40">
-        <v>580</v>
+        <v>126</v>
       </c>
       <c r="M40">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1876,7 +1882,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
         <v>114</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -1952,14 +1958,15 @@
       <c r="I48" t="s">
         <v>109</v>
       </c>
+      <c r="J48" s="1"/>
       <c r="K48" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L48">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -1981,20 +1988,19 @@
       <c r="I49" t="s">
         <v>109</v>
       </c>
-      <c r="J49" s="1"/>
       <c r="K49" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L49">
-        <v>151</v>
+        <v>698</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
         <v>114</v>
@@ -2011,19 +2017,20 @@
       <c r="I50" t="s">
         <v>109</v>
       </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L50">
-        <v>698</v>
+        <v>763</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>114</v>
@@ -2040,20 +2047,19 @@
       <c r="I51" t="s">
         <v>109</v>
       </c>
-      <c r="J51" s="1"/>
       <c r="K51" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="L51">
-        <v>763</v>
+        <v>223</v>
       </c>
       <c r="M51">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
         <v>114</v>
@@ -2071,18 +2077,18 @@
         <v>109</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="L52">
-        <v>126</v>
+        <v>608</v>
       </c>
       <c r="M52">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
         <v>114</v>
@@ -2100,18 +2106,18 @@
         <v>109</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="L53">
-        <v>654</v>
+        <v>365</v>
       </c>
       <c r="M53">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
         <v>114</v>
@@ -2129,27 +2135,30 @@
         <v>109</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L54">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="M54">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="F55" t="s">
+        <v>112</v>
       </c>
       <c r="G55" t="s">
         <v>112</v>
@@ -2157,83 +2166,97 @@
       <c r="I55" t="s">
         <v>109</v>
       </c>
+      <c r="J55" s="1"/>
       <c r="K55" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="L55">
-        <v>608</v>
+        <v>127</v>
       </c>
       <c r="M55">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
       </c>
       <c r="G56" t="s">
         <v>112</v>
       </c>
+      <c r="H56" t="s">
+        <v>112</v>
+      </c>
       <c r="I56" t="s">
         <v>109</v>
       </c>
+      <c r="J56" s="1"/>
       <c r="K56" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="L56">
-        <v>365</v>
+        <v>577</v>
       </c>
       <c r="M56">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
         <v>113</v>
       </c>
+      <c r="F57" t="s">
+        <v>112</v>
+      </c>
       <c r="G57" t="s">
         <v>112</v>
       </c>
+      <c r="H57" t="s">
+        <v>112</v>
+      </c>
       <c r="I57" t="s">
         <v>109</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="L57">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="M57">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
         <v>111</v>
@@ -2249,18 +2272,18 @@
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="L58">
-        <v>127</v>
+        <v>595</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
         <v>127</v>
@@ -2269,15 +2292,12 @@
         <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
         <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" t="s">
         <v>112</v>
       </c>
       <c r="I59" t="s">
@@ -2285,24 +2305,24 @@
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L59">
-        <v>577</v>
+        <v>349</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
@@ -2316,20 +2336,19 @@
       <c r="I60" t="s">
         <v>109</v>
       </c>
-      <c r="J60" s="1"/>
       <c r="K60" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="L60">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
         <v>127</v>
@@ -2346,34 +2365,34 @@
       <c r="G61" t="s">
         <v>112</v>
       </c>
-      <c r="H61" t="s">
-        <v>112</v>
-      </c>
       <c r="I61" t="s">
         <v>109</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="L61">
-        <v>54</v>
+        <v>473</v>
       </c>
       <c r="M61">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
         <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>112</v>
       </c>
       <c r="F62" t="s">
         <v>112</v>
@@ -2384,26 +2403,25 @@
       <c r="I62" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="1"/>
+      <c r="J62" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="K62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L62">
-        <v>595</v>
-      </c>
-      <c r="M62">
-        <v>52</v>
+        <v>168</v>
+      </c>
+      <c r="L62" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
         <v>113</v>
@@ -2411,32 +2429,28 @@
       <c r="F63" t="s">
         <v>112</v>
       </c>
-      <c r="G63" t="s">
-        <v>112</v>
-      </c>
       <c r="I63" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="1"/>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="L63">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="M63">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
         <v>113</v>
@@ -2444,28 +2458,25 @@
       <c r="F64" t="s">
         <v>112</v>
       </c>
-      <c r="G64" t="s">
-        <v>112</v>
-      </c>
       <c r="I64" t="s">
         <v>109</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="L64">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="M64">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
         <v>107</v>
@@ -2476,140 +2487,75 @@
       <c r="F65" t="s">
         <v>112</v>
       </c>
-      <c r="G65" t="s">
-        <v>112</v>
-      </c>
       <c r="I65" t="s">
         <v>109</v>
       </c>
+      <c r="J65" s="1"/>
       <c r="K65" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L65">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="M65">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" t="s">
-        <v>169</v>
-      </c>
       <c r="B66" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
-      </c>
-      <c r="F66" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" t="s">
-        <v>112</v>
-      </c>
-      <c r="I66" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="L66">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="M66">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" t="s">
-        <v>118</v>
-      </c>
       <c r="B67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" t="s">
-        <v>113</v>
-      </c>
-      <c r="F67" t="s">
-        <v>112</v>
-      </c>
-      <c r="I67" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L67">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
       <c r="B68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" t="s">
-        <v>112</v>
-      </c>
-      <c r="I68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="L68">
-        <v>229</v>
+        <v>654</v>
       </c>
       <c r="M68">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" t="s">
-        <v>148</v>
-      </c>
       <c r="B69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" t="s">
-        <v>113</v>
-      </c>
-      <c r="F69" t="s">
-        <v>112</v>
-      </c>
-      <c r="I69" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="L69">
-        <v>452</v>
+        <v>356</v>
       </c>
       <c r="M69">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2617,13 +2563,13 @@
         <v>105</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="L70">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="M70">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2631,13 +2577,13 @@
         <v>105</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="L71">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="M71">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2645,42 +2591,42 @@
         <v>105</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="L72">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="B73" t="s">
         <v>105</v>
       </c>
-      <c r="J73" s="1"/>
       <c r="K73" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L73">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="M73">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="B74" t="s">
         <v>105</v>
       </c>
+      <c r="J74" s="1"/>
       <c r="K74" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L74">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2688,13 +2634,13 @@
         <v>105</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L75">
+        <v>39</v>
+      </c>
+      <c r="M75">
         <v>2</v>
-      </c>
-      <c r="M75">
-        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2702,13 +2648,13 @@
         <v>105</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2716,28 +2662,27 @@
         <v>105</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="B78" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="1"/>
       <c r="K78" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L78">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="M78">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2746,13 +2691,13 @@
       </c>
       <c r="D79" s="1"/>
       <c r="K79" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L79">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="M79">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -2761,29 +2706,28 @@
       </c>
       <c r="D80" s="1"/>
       <c r="K80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L80">
-        <v>414</v>
+        <v>96</v>
       </c>
       <c r="M80">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>105</v>
       </c>
       <c r="D81" s="1"/>
       <c r="K81" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L81">
-        <v>6</v>
+        <v>414</v>
       </c>
       <c r="M81">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -2793,27 +2737,29 @@
       </c>
       <c r="D82" s="1"/>
       <c r="K82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82">
+        <v>6</v>
+      </c>
+      <c r="M82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="K83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L82">
+      <c r="L83">
         <v>380</v>
       </c>
-      <c r="M82">
+      <c r="M83">
         <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="B83" t="s">
-        <v>105</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L83">
-        <v>423</v>
-      </c>
-      <c r="M83">
-        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -2821,13 +2767,13 @@
         <v>105</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L84">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="M84">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -2835,13 +2781,13 @@
         <v>105</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L85">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="M85">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -2849,13 +2795,13 @@
         <v>105</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L86">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="M86">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -2863,29 +2809,27 @@
         <v>105</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L87">
-        <v>275</v>
+        <v>101</v>
       </c>
       <c r="M87">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="B88" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="J88" s="1"/>
       <c r="K88" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L88">
-        <v>351</v>
+        <v>275</v>
       </c>
       <c r="M88">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -2895,13 +2839,13 @@
       <c r="C89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L89">
-        <v>84</v>
+        <v>351</v>
       </c>
       <c r="M89">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -2911,13 +2855,13 @@
       <c r="C90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L90">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M90">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -2927,13 +2871,13 @@
       <c r="C91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L91">
-        <v>346</v>
+        <v>48</v>
       </c>
       <c r="M91">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -2943,27 +2887,29 @@
       <c r="C92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L92">
-        <v>536</v>
+        <v>346</v>
       </c>
       <c r="M92">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="B93" t="s">
         <v>105</v>
       </c>
+      <c r="C93" s="1"/>
+      <c r="J93" s="1"/>
       <c r="K93" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L93">
-        <v>73</v>
+        <v>536</v>
       </c>
       <c r="M93">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -2971,13 +2917,13 @@
         <v>105</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L94">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="M94">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -2985,117 +2931,132 @@
         <v>105</v>
       </c>
       <c r="K95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L95">
+        <v>272</v>
+      </c>
+      <c r="M95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L95">
+      <c r="L96">
         <v>111</v>
       </c>
-      <c r="M95">
+      <c r="M96">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M95">
+  <sortState ref="A2:M96">
     <sortCondition ref="B1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="K75" r:id="rId1"/>
-    <hyperlink ref="K81" r:id="rId2"/>
-    <hyperlink ref="K85" r:id="rId3"/>
+    <hyperlink ref="K76" r:id="rId1"/>
+    <hyperlink ref="K82" r:id="rId2"/>
+    <hyperlink ref="K86" r:id="rId3"/>
     <hyperlink ref="K2" r:id="rId4"/>
-    <hyperlink ref="K76" r:id="rId5"/>
+    <hyperlink ref="K77" r:id="rId5"/>
     <hyperlink ref="K18" r:id="rId6"/>
     <hyperlink ref="K25" r:id="rId7"/>
     <hyperlink ref="K46" r:id="rId8"/>
-    <hyperlink ref="K77" r:id="rId9"/>
-    <hyperlink ref="K74" r:id="rId10"/>
-    <hyperlink ref="K90" r:id="rId11"/>
-    <hyperlink ref="K61" r:id="rId12"/>
-    <hyperlink ref="K78" r:id="rId13"/>
+    <hyperlink ref="K78" r:id="rId9"/>
+    <hyperlink ref="K75" r:id="rId10"/>
+    <hyperlink ref="K91" r:id="rId11"/>
+    <hyperlink ref="K57" r:id="rId12"/>
+    <hyperlink ref="K79" r:id="rId13"/>
     <hyperlink ref="K11" r:id="rId14"/>
-    <hyperlink ref="K93" r:id="rId15"/>
+    <hyperlink ref="K94" r:id="rId15"/>
     <hyperlink ref="K14" r:id="rId16"/>
-    <hyperlink ref="K39" r:id="rId17"/>
-    <hyperlink ref="K89" r:id="rId18"/>
-    <hyperlink ref="K70" r:id="rId19"/>
+    <hyperlink ref="K38" r:id="rId17"/>
+    <hyperlink ref="K90" r:id="rId18"/>
+    <hyperlink ref="K71" r:id="rId19"/>
     <hyperlink ref="K6" r:id="rId20"/>
-    <hyperlink ref="K79" r:id="rId21"/>
-    <hyperlink ref="K86" r:id="rId22"/>
+    <hyperlink ref="K80" r:id="rId21"/>
+    <hyperlink ref="K87" r:id="rId22"/>
     <hyperlink ref="K42" r:id="rId23"/>
-    <hyperlink ref="K95" r:id="rId24"/>
-    <hyperlink ref="K52" r:id="rId25"/>
-    <hyperlink ref="K58" r:id="rId26"/>
-    <hyperlink ref="K72" r:id="rId27"/>
-    <hyperlink ref="K32" r:id="rId28"/>
-    <hyperlink ref="K49" r:id="rId29"/>
-    <hyperlink ref="K35" r:id="rId30"/>
+    <hyperlink ref="K96" r:id="rId24"/>
+    <hyperlink ref="K40" r:id="rId25"/>
+    <hyperlink ref="K55" r:id="rId26"/>
+    <hyperlink ref="K73" r:id="rId27"/>
+    <hyperlink ref="K31" r:id="rId28"/>
+    <hyperlink ref="K48" r:id="rId29"/>
+    <hyperlink ref="K34" r:id="rId30"/>
     <hyperlink ref="K20" r:id="rId31"/>
     <hyperlink ref="K47" r:id="rId32"/>
-    <hyperlink ref="K48" r:id="rId33"/>
+    <hyperlink ref="K67" r:id="rId33"/>
     <hyperlink ref="K3" r:id="rId34"/>
     <hyperlink ref="K17" r:id="rId35"/>
     <hyperlink ref="K9" r:id="rId36"/>
-    <hyperlink ref="K67" r:id="rId37"/>
-    <hyperlink ref="K73" r:id="rId38"/>
+    <hyperlink ref="K63" r:id="rId37"/>
+    <hyperlink ref="K74" r:id="rId38"/>
     <hyperlink ref="K27" r:id="rId39"/>
     <hyperlink ref="K16" r:id="rId40"/>
     <hyperlink ref="K22" r:id="rId41"/>
-    <hyperlink ref="K54" r:id="rId42"/>
-    <hyperlink ref="K68" r:id="rId43"/>
+    <hyperlink ref="K51" r:id="rId42"/>
+    <hyperlink ref="K64" r:id="rId43"/>
     <hyperlink ref="K44" r:id="rId44"/>
-    <hyperlink ref="K30" r:id="rId45"/>
-    <hyperlink ref="K38" r:id="rId46"/>
-    <hyperlink ref="K94" r:id="rId47"/>
-    <hyperlink ref="K87" r:id="rId48"/>
+    <hyperlink ref="K66" r:id="rId45"/>
+    <hyperlink ref="K37" r:id="rId46"/>
+    <hyperlink ref="K95" r:id="rId47"/>
+    <hyperlink ref="K88" r:id="rId48"/>
     <hyperlink ref="K12" r:id="rId49"/>
     <hyperlink ref="K29" r:id="rId50"/>
-    <hyperlink ref="K71" r:id="rId51"/>
-    <hyperlink ref="K57" r:id="rId52"/>
+    <hyperlink ref="K72" r:id="rId51"/>
+    <hyperlink ref="K54" r:id="rId52"/>
     <hyperlink ref="K15" r:id="rId53"/>
-    <hyperlink ref="K66" r:id="rId54"/>
-    <hyperlink ref="K84" r:id="rId55"/>
+    <hyperlink ref="K70" r:id="rId54"/>
+    <hyperlink ref="K85" r:id="rId55"/>
     <hyperlink ref="K21" r:id="rId56"/>
-    <hyperlink ref="K64" r:id="rId57"/>
-    <hyperlink ref="K91" r:id="rId58"/>
-    <hyperlink ref="K63" r:id="rId59"/>
-    <hyperlink ref="K88" r:id="rId60"/>
+    <hyperlink ref="K60" r:id="rId57"/>
+    <hyperlink ref="K92" r:id="rId58"/>
+    <hyperlink ref="K59" r:id="rId59"/>
+    <hyperlink ref="K89" r:id="rId60"/>
     <hyperlink ref="K10" r:id="rId61"/>
-    <hyperlink ref="K60" r:id="rId62"/>
+    <hyperlink ref="K69" r:id="rId62"/>
     <hyperlink ref="K5" r:id="rId63"/>
-    <hyperlink ref="K56" r:id="rId64"/>
-    <hyperlink ref="K36" r:id="rId65"/>
+    <hyperlink ref="K53" r:id="rId64"/>
+    <hyperlink ref="K35" r:id="rId65"/>
     <hyperlink ref="K45" r:id="rId66"/>
-    <hyperlink ref="K82" r:id="rId67"/>
-    <hyperlink ref="K34" r:id="rId68"/>
+    <hyperlink ref="K83" r:id="rId67"/>
+    <hyperlink ref="K33" r:id="rId68"/>
     <hyperlink ref="K19" r:id="rId69"/>
-    <hyperlink ref="K80" r:id="rId70"/>
+    <hyperlink ref="K81" r:id="rId70"/>
     <hyperlink ref="K24" r:id="rId71"/>
-    <hyperlink ref="K83" r:id="rId72"/>
-    <hyperlink ref="K69" r:id="rId73"/>
-    <hyperlink ref="K65" r:id="rId74"/>
+    <hyperlink ref="K84" r:id="rId72"/>
+    <hyperlink ref="K65" r:id="rId73"/>
+    <hyperlink ref="K61" r:id="rId74"/>
     <hyperlink ref="K43" r:id="rId75"/>
-    <hyperlink ref="K31" r:id="rId76"/>
-    <hyperlink ref="K92" r:id="rId77"/>
+    <hyperlink ref="K30" r:id="rId76"/>
+    <hyperlink ref="K93" r:id="rId77"/>
     <hyperlink ref="K41" r:id="rId78"/>
     <hyperlink ref="K23" r:id="rId79"/>
     <hyperlink ref="K28" r:id="rId80"/>
-    <hyperlink ref="K59" r:id="rId81"/>
-    <hyperlink ref="K40" r:id="rId82"/>
-    <hyperlink ref="K62" r:id="rId83"/>
-    <hyperlink ref="K55" r:id="rId84"/>
-    <hyperlink ref="K53" r:id="rId85"/>
+    <hyperlink ref="K56" r:id="rId81"/>
+    <hyperlink ref="K39" r:id="rId82"/>
+    <hyperlink ref="K58" r:id="rId83"/>
+    <hyperlink ref="K52" r:id="rId84"/>
+    <hyperlink ref="K68" r:id="rId85"/>
     <hyperlink ref="K4" r:id="rId86"/>
-    <hyperlink ref="K50" r:id="rId87"/>
-    <hyperlink ref="K37" r:id="rId88"/>
+    <hyperlink ref="K49" r:id="rId87"/>
+    <hyperlink ref="K36" r:id="rId88"/>
     <hyperlink ref="K8" r:id="rId89"/>
     <hyperlink ref="K13" r:id="rId90"/>
     <hyperlink ref="K26" r:id="rId91"/>
     <hyperlink ref="K7" r:id="rId92"/>
-    <hyperlink ref="K33" r:id="rId93"/>
-    <hyperlink ref="K51" r:id="rId94"/>
+    <hyperlink ref="K32" r:id="rId93"/>
+    <hyperlink ref="K50" r:id="rId94"/>
+    <hyperlink ref="K62" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>
 
